--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 15.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 15.xlsx_with_dialog_acts.xlsx
@@ -589,12 +589,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1075,12 +1075,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1599,12 +1599,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
